--- a/Definitions/s-Definitions-Google.xlsx
+++ b/Definitions/s-Definitions-Google.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Topics</t>
   </si>
@@ -117,24 +117,24 @@
     </r>
   </si>
   <si>
-    <t>With Google tracking id, we can do all these</t>
+    <t>Whats not getting tracked?</t>
+  </si>
+  <si>
+    <t>With default GATC settings we can track all these</t>
   </si>
   <si>
     <t>Visitor and Visits: Hit Counts, Demo Graphics, Browser and OS technology, New vs Returning visitors
 Content data: Page View Counts, Bounce Rate, Entry/Exit, Flow/Navigation
 Sessions: Duration, Page Depth
-Traffic Sources: how visitors found web site. 
-In page analytics</t>
-  </si>
-  <si>
-    <t>Whats not getting tracked?</t>
+Traffic Sources: how visitors found web site. Whether through search engine or directly typing web site address
+In page analytics: for given page what links have been clicked</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">1. Monetory value
 2. Goals and Funnels
 3. Multiple domains/sub domains
-4. In page events such as file downloads, flash or youtube interactions. 
+4. In page events such as file downloads, flash or youtube interactions, mailto and outbound link click
 </t>
     </r>
     <r>
@@ -147,6 +147,26 @@
       </rPr>
       <t>We can enable these also with some extra settings</t>
     </r>
+  </si>
+  <si>
+    <t>Free from Google Analytics</t>
+  </si>
+  <si>
+    <t>1. Mostly Google Analytics is free
+2. Must operate below thresholds:
+ a. Exceed 10MB data hits or roughly 1Million visits per month
+ b. Data retained upto 25 months
+ c. Data exports limited to 20K rows per export</t>
+  </si>
+  <si>
+    <t>Premium from Google Analytics</t>
+  </si>
+  <si>
+    <t>1. For large organizations
+2. when we need to scale beyond limits
+3. want to include development and configuration support
+4. gurantees report freshness to less than 4 hours
+5. cost is $150000 per year</t>
   </si>
 </sst>
 </file>
@@ -254,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,10 +297,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -623,8 +646,8 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,8 +691,8 @@
       <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -725,7 +748,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="180">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -733,7 +756,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="105">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -747,28 +770,36 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75">
       <c r="A22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
@@ -783,11 +814,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
